--- a/500all/speech_level/speeches_CHRG-114hhrg99659.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99659.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="431">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order.    Without objection, the chair is authorized to declare a recess at any time.    Mr. Cummings will be with us momentarily. Another committee assignment is also pressing on his schedule.    Last week we learned that the United States of America may have had what may be the most devastating cyber attack in our Nation's history, and that this may have been happening over a long period of time.    As we sit here this morning, there is a lot of confusion about exactly what personal information for millions of current and former Federal employees and workers were exposed through the latest data breach at the Office of Personnel Management.    OPM initially reported that the personal information of more than 4 million Federal employees was exposed during this attack. More recent public reports suggest that the breach was perhaps much worse than that.    It is also unclear exactly what information was exposed. We would like to know what information was exposed, over what period of time, and who has this vulnerability.    It would also be great to know who had conducted this attack. And I think we need to have candor with not only the Federal employees, but the American people as well.    The breach potentially included highly sensitive personal background information collected through the security clearance applications. We would like clarity on that position as well.    The loss of this information puts our Federal workforce at risk, particularly our intelligence officers and others working on sensitive projects throughout the globe. But we are concerned about each and every Federal worker and the public who has interacted with the Government and entrusted this information with the Government. We need to understand why the Federal Government, and OPM in particular, is struggling to guard some of our Nation's most important information.    The fact that OPM was breached should come as no surprise giving its troubled track record on data security. This has been going on for years and it is inexcusable.    Each year, the Office of Inspector General reviews and rates its respective agency's compliance with the Federal Information Security standards. According to the last eight years of IG reports, OPM's data security posture was akin to leaving all the doors and windows open in your house and expecting that nobody would walk in and nobody would take any information. How wrong they were.    Since 2007, the OPM Inspector General rated OPM's data security as a ``material weakness'' because the agency had no IT policies or procedures that can come anywhere close to something that could be used as an excuse for securing the information.    It is unbelievable to think the agency charged with maintaining and protecting all personal information of almost all former and current Federal employees would have so few information technology policies or procedures in place.    Let me just kind of read through some of the reports that have happened through the course of the years.    This is the inspector general from fiscal year 2009: This year we are expanding the material weakness to include the agency's overall information security governance programs and incorporating our concerns about the agency's information security management structure. The continuing weakness at OPM's information security program result directly from inadequate governance. Most, if not all, of the exceptions we noted this year resulted from a lack of necessary leadership, policy, and guidance.    Go to fiscal year 2010: We continue to consider the IT security management structure insufficient staff and the lack of policies and procedures to be a material weakness in OPM's IT security program.    Fiscal year 2011: We continue to believe that the information security governance represents a material weakness at OPM's IT security program.    Fiscal year 2012: Throughout fiscal year 2012, the OCIO, the Office of the Chief Information Officer, continued to operate with a decentralized IT security structure that did not have the authority or resources available to adequately implement new policies. However, the material weakness remains open in this report as the agency's IT security function remained decentralized throughout fiscal year 2012, FISMA reporting period, and because of the continued instances of non-compliance with FISMA requirements.    It goes on later: The OCIO's response to our draft audit report indicated that they disagree with the classification of the material weakness because of the program that OPM has made with its IT security program and because there was no loss of sensitive data during the fiscal year. But as the inspector general pointed out, however, the OCIO's statement is inaccurate, as there were in fact numerous information security incidents in fiscal year 2012 that led to the loss or unauthorized release of mission-critical and sensitive data.    They couldn't even decide and agree that they had lost the data back in fiscal year 2012, let alone actually solve the problem.    Go to fiscal year 2013. Again, the inspector general: The findings of this audit report highlight the fact that OPM's decentralized governance structure continues to result in many instances of non-compliance with FISMA requirements; therefore, we are again reporting this issue as a material weakness in fiscal year 2013.    Fast forward to fiscal year 2014. This is November of 2014: Eleven major OPM information systems are operating without valid authorization. This represents a material weakness in the internal control structure at OPM's IT security program.    It goes on: OPM does not maintain a comprehensive inventory of servers, databases, and network devices. They didn't even know what they have. They don't even know what is in the inventory.    Program offices are not adequately incorporating known weakness into plans of action and milestones, and the majority of systems are 120 days overdue. OPM continues to implement its continuous monitoring plan; however, security controls for all OPM systems are not adequately tested in accordance with their own policies. Not all OPM systems have conducted contingency plan tests in fiscal year 2014. Several information security agreements between OPM and contract operated information systems have expired. Multi-factor authentication is not required to access OPM systems in accordance with the OMB memorandum.    This has been going on for a long time. And yet, when I read the testimony that was provided here, we are about to hear some say, hey, we are doing a great job. You are not. It is failing.    This went on for years and it did not change. The inspector general found that 11 of the 47 major information systems, or roughly 23 percent, at OPM lacked proper security authorization, meaning the security of 11 major systems was completely outdated and unknown. Five of the 11 systems were in the Office of the Chief Information Officer, Ms. Seymour. They are in your office, which is a horrible example to be setting as the person in charge of the agency's data security.    The IG only recently upgraded OPM to a ``significant deficiency.'' In November 2014, FISMA, over 65 percent of all systems operated by OPM reside on two of the systems without valid authorization. Sitting on two systems, no valid authorization, 65 percent of the information.    For any agency to consciously disregard its data security for so long is grossly negligent. And the fact that the agency that did this is responsible for maintaining highly sensitive information for almost all Federal employees, in my opinion, is even more egregious.    OPM isn't alone. A number of other agencies also suffered breaches in the last year. This later cyber hack comes on the heels of several data breaches across the Government, including the Postal Service, the State Department, the Internal Revenue Service, the Nuclear Regulatory Commission, and even the White House.    At the same time, government is spending more and more on information technology. Last year, across government, we, the American people, spent almost $80 billion on information technology, and it stinks. It doesn't work, $80 billion dollars later. And the person in charge of security, the person who is in charge of making sure there is authentication of our systems, even in her own office there isn't the authorization needed.    OPM is not alone in the blame for this failure. The Office of Management and Budget has the responsibility for setting standards for Federal cybersecurity practices, and it is OMB's job to hold agencies accountable for complying and enforcing these standards.    The Department of Homeland Security has been given the lead responsibility for serving as the Federal Government's so-called geek squad to monitor day-to-day cybersecurity practices, but the technical tools that DHS has deployed to try to protect Federal networks apparently isn't doing the job.    While DHS has developed EINSTEIN to monitor Government networks, it only detects known intruders, proving that it is completely useless in the latest OPM hacks.    The status quo cannot continue. We have to do better. We are talking about the most vital information of the most sensitive nature of the people that we care about most. The people entrust that information to OPM, and through the years it has been a complete and total utter failure, to the point we find ourselves where millions of Americans are left wondering what somebody knows about them. What are they supposed to do?    And I have read the letter that you have been sending out to employees, and it is grossly inadequate. It is grossly inadequate, and that is why we are having this hearing today.    We do appreciate you all being here.    I think what we are going to do now is I would like to recognize the gentleman from Texas who is the chairman of the subcommittee that we have on IT. We at the Oversight and Government Reform Committee have set up a new subcommittee that deals just with IT issues.    We are honored and pleased to have Mr. Hurd chairing that committee, so I will now recognize the gentleman from Texas, Mr. Hurd, for five minutes.</t>
   </si>
   <si>
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. Chairman.    Not only as the head of the subcommittee, but as a former intelligence officer who has been through background investigation and whose information probably resides with OPM, I am concerned.    Today's hearing is just another example of the undeniable fact that America is under constant attack. It is not bombs dropping or missiles launching; it is the constant stream of cyber weapons aimed at our data. From private sector innovations to military seekers, our enemies are attempting to rob this Country on a daily basis, and, unfortunately, they are succeeding.    The worst of these cyber attacks are not coming from the caves of Afghanistan or Syria, but from air conditioned office buildings in China, Iran, and Russian, far from battlefields. These hackers work with impunity, knowing that their actions have no consequences.    This is not only a question of how we can protect our networks and data, but of how we define the appropriate responses for digital and digital attacks. This is one of the questions I have been asking for years and I have continued to ask in my role as chairman of the Information Technology Subcommittee.    It is no secret that Federal agencies need to improve their cybersecurity posture. We have years and years of reports highlighting the vulnerabilities of Federal agencies from legacy systems to poor FISMA compliance. And while there have been improvements, they have not kept pace with the nature of the threats we are facing.    But until agency leadership takes control of these basic cybersecurity measures, things like strong authentication, network monitoring, encrypting data, and segmentation, we will always be playing catch-up against our highly sophisticated and well-resourced adversaries.    I welcome the witnesses here today and look forward to their testimony.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair.    I want to thank our expert witnesses for their participation today, and I thank the chairman and ranking member for holding this important hearing on the OPM data breach.    As you know, I have the privilege of serving as the ranking member of the IT subcommittee. The issue of data breach is something that Chairman Hurd and I are quite concerned with, and we are looking forward to working with our colleagues to be active in addressing this issue.    All of us here today should be quite concerned. The OPM breach has raised significant questions about how adequately the personnel information of government employees is stored on government networks. We know that every day our government and American businesses face a barrage of cyber threats.    We are reminded of many of the high-profiled breaches on some of our Nation's most important companies, but there are everyday cyber intrusions of our data that aren't making the headlines. Whether it is criminals beyond our borders profiting from fraud and identity theft, domestic competitors who steal intellectual property to gain advantage, or hacktivists looking to make a statement against governments, cyber crime threatens our national security and economic prosperity.    Data breaches probably won't end any time soon, but they are something that we can be more aggressive in addressing. As we catch on to cyber attackers' methods, these bad actors will look to innovate their way around newly integrated cyber defenses. This is why we must be just as innovative. That is why we must have a frank conversation today and prepare a multi-front strategy to ward off and diminish the possibility of future data breaches.    So I thank the committee and our witnesses again for this opportunity to examine the OPM attack and, with that, I yield back.</t>
   </si>
   <si>
@@ -88,57 +79,36 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Archuleta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Archuleta. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, I am here today to talk to you about two successful intrusions into OPM's systems and data. But first I want to deliver a message to Federal employees, retirees, and their families. The security of their personnel data is of paramount importance. We are committed to full and complete investigation of these incidents and are taking actions to mitigate vulnerabilities exposed by their intrusions.    When I was sworn in as Director 18 months ago, I recognized that in order to build and manage an engaged, inclusive and well-trained workforce, that we would need a thorough assessment of the state of information technology at OPM. I immediately became aware of vulnerabilities in our aging legacy systems and I made the modernization and the security of our network one of my top priorities.    Government and non-government entities are under constant attack by evolving and advanced persistent threats and criminal actors. These adversaries are sophisticated, well-funded, and focused. These attacks will not stop. If anything, they will increase.    Within the last year, we have undertaken an aggressive effort to update our cybersecurity posture, adding numerous tools and capabilities to our networks. As a result, in April of 2015, an intrusion that predated the adoption of these security controls was detected. We immediately contacted the Department of Homeland Security and the FBI, and together with these partners, initiated an investigation to determine the scope and the impact of the intrusion. In May, the interagency incident response team concluded that the exposure of personnel records had occurred, and notifications to affected individuals began on June 8th and will continue through June 19th.    As part of our ongoing notification process, we are continuing to learn more about the systems that contributed to individuals' data potentially being compromised. These individuals were included in the previously identified population of approximately 4 million individuals and are being appropriately notified. For example, we have now confirmed that any Federal employee from across all branches of government whose organization submitted service history records to OPM may have been compromised, even if their full personnel file is not stored on OPM's system.    During the course of the ongoing investigation, the interagency incident response team concluded later in May that additional systems were likely compromised. This separate incident, which also predated deployment of our new security tools and capabilities, remains under investigation by OPM and our interagency partners.    However, there is a high degree of confidence that systems related to background investigations of current, former and prospective Federal Government employees and those for whom a Federal background investigation was conducted may have been exfiltrated. While we have not yet determined its scope or its impact, we are committed to notifying those individuals whose information may have been compromised as soon as practicable.    Throughout these investigations, we have provided regular updates to congressional leadership and the relevant committees of these incidents. But for the fact that we implemented new, more stringent security tools, we would have never known that malicious activity had previously existed on that network and would not have been able to share that information for the protection of the rest of the Federal Government.    In response to these incidents and working with our partners at DHS, we have immediately implemented additional security measures to protect sensitive information and to take steps toward building a simplified, modern, and flexible network structure. We continue to execute on our aggressive plan to modernize OPM's platform and bolster security tools.    Our 2016 budget request includes an additional $21 million above 2015 funding levels to further the support of the modernization of our IT infrastructure, which is critical to protecting data from the persistent adversaries we face. This funding will help us sustain the network security upgrades and maintenance initiated in fiscal year 2014 and fiscal year 2015 to improve our cyber posture, including advanced tools such as database encryption, stronger firewalls, storage devices, and masking software. The funding will also support the redesign of OPM's legacy network.    Thank you for this opportunity to testify today and I am happy to address any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Dr. Ozment.</t>
   </si>
   <si>
-    <t>Ozment</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ozment. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, I appreciate the opportunity to appear before you today.    Like you, my fellow panelists, and countless Americans, I am deeply concerned about the recent compromise at OPM. I am personally dedicated to ensuring that we take all necessary steps to protect our Federal workforce and to drive forward the cybersecurity of the entire Federal Government.    Director Archuleta and my written statement both spoke to the facts of the OPM incident, so I want to focus my remarks on how DHS is accelerating our efforts to protect the Federal Government.    This morning I will discuss how the Department of Homeland Security is protecting civilians, Federal agencies, and helping those agencies better protect themselves.    Under legislation passed by this Congress last year, Federal agencies are responsible for their own cybersecurity. However, DHS provides a common baseline of security across the civilian government and helps agencies better manage their cyber risks through four key efforts. First, we protect agencies by providing a common set of capabilities through the EINSTEIN and Continuous Diagnostics and Mitigation, or CDM, programs. Second, we measure and motivate agencies to implement best practices; third, we serve as a hub for information sharing. Finally, we provide incident response assistance when agencies suffer a cyber intrusion.    I will focus this morning on the first area, how DHS provides a baseline of security across the Federal Government through EINSTEIN and CDM. I have described the other three areas in my written statement and am happy to take your questions on them.    Our first line of defense against cyber threats is the EINSTEIN system, which protects agencies at the perimeter. A useful analogy is that of a physical government facility. In this analogy with the physical world, EINSTEIN 1 is similar to a camera at the entrance to the facility that records the traffic coming and going, and identifies anomalies in the number of cars.    EINSTEIN 2 adds the ability to detect suspicious cars based upon a watch list and to alert security personnel when a prohibited vehicle is identified. EINSTEIN 2 does not stop cars, but it does set off an alarm.    EINSTEIN 1 and 2 are fully deployed in screening approximately 90 percent of all Federal civilian traffic, all of the traffic that goes through trusted Internet connections.    The latest phase of the program, known as EINSTEIN 3A, is akin to a guard post at the highway that leads to multiple government facilities. EINSTEIN 3A uses classified information to look at the cars and compare them with a classified watch list. It then actively blocks prohibited cars from entering the facility.    We are accelerating our efforts to protect all civilian agencies with EINSTEIN 3A. The system now covers 15 Federal civilian agencies, with over 930,000 Federal personnel, which is approximately 45 percent of the civilian government, and those are protected with at least one of two security countermeasures. That is about double the coverage we had just nine months ago.    During this time, EINSTEIN 3A has blocked over 550,000 attempts to access potentially malicious Web sites, which is one of our two countermeasures. EINSTEIN played a key role in identifying the recent compromise of OPM data at the Department of Interior.    As we accelerate EINSTEIN deployment, we also recognize that security cannot be achieved through only one type of tool. EINSTEIN will never be able to block every threat. For example, it must be complemented with systems and tools to monitor inside agency networks. Our CDM program addresses this challenge.    Returning to our analogy of a government facility, CDM Phase 1 allows agencies to continuously check building locks and security cameras to ensure they are operated as intended. Continuing the analogy, the next two phases will monitor personnel in the facility to ensure they are not engaged in unauthorized activity, and it will assess activity across the facility to detect unusual patterns.    We have provided CDM Phase 1 capabilities to eight agencies, covering over 50 percent of the Federal Government, and we expect to cover 97 percent of the Government by the end of this fiscal year.    Now, the deadlines I have just told you are when DHS will provide a given capability. It will take a few additional months for agencies to fully implement their side of both EINSTEIN and CDM once they are available. And, of course, agencies must supplement EINSTEIN and CDM with additional tools appropriate to their needs.    I would like to conclude by noting that Federal agencies are a rich target and will continue to experience frequent attempted intrusions. This problem is not unique to the government. As our detection methods continue to improve, we will in fact detect more incidents, incidents that are already occurring and we just didn't know it yet.    The recent breach of OPM is emblematic of this trend, as OPM was able to detect the intrusion by implementing cybersecurity best practices recommended by DHS. We are facing a major challenge in protecting our most sensitive information against sophisticated, well resourced, and persistent adversaries.    Further, the entire Nation is now making up for 20 years of under-investment in our Nation's cybersecurity in both the public and private sectors. In response, we in the government are accelerating the deployment of the tools we have and are bringing cutting-edge capabilities online, and we are asking our partner agencies and Congress to take action and work with us to strengthen the cybersecurity of Federal agencies.    Thank you again for the opportunity to appear today, and I look forward to any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Mr. Scott, you have a very impressive background. Your joining the Federal Government is much appreciated. We look forward to hearing your testimony. You are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>412477</t>
-  </si>
-  <si>
-    <t>Scott DesJarlais</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Chairman Chaffetz, Ranking Member Cummings, members of the committee. Thank you for the opportunity to appear before you today. And I appreciate the opportunity to speak with you about recent cyber incidents affecting Federal agencies.    I would like to start by highlighting a very important point, which has been mentioned already and of which I am sure you are aware. Both state and non-state actors who are well financed, highly motivated, and persistent are attempting to breach both government and non-government systems every day, and these attempts are not going away. They will continue to accelerate on two fronts, first, the attacks will become more sophisticated and, second, as we remediate and strengthen our own practices, our detection capabilities will improve. But that means we have to be as nimble, as aggressive, and as well-resourced as those who are trying to break into our systems.    Confronting cybersecurity threats on a continuous basis is our Nation's new reality, a reality that I faced in the private sector and am continuing to see here in my new role as Federal Chief Information Officer.    As Federal CIO, I lead the Office of Management and Budget's Office of E-Government and Information Technology. My office is responsible for developing and overseeing the implementation of Federal information technology policy. And even though my team has a variety of responsibilities, I will focus today's remarks on cybersecurity.    Under the Federal Information Security Modernization Act of 2014, most of us know this as FISMA, OMB is responsible for Federal information security oversight and policy issuance. OMB executes its responsibilities in close coordination with its Federal cybersecurity partners, including the Department of Homeland Security and the Department of Commerce National Institute of Standards and Technology.    As I mentioned in front of this committee in April, OMB also recently announced the creation of the first ever dedicated cybersecurity unit within my office. This is the team that is behind the work articulated in the fiscal year 2014 FISMA report which highlighted both the successes and challenges facing Federal agencies' cybersecurity programs.    In fiscal year 2015, the E-Gov Cyber Unit is targeting oversight through CyberStat reviews, prioritizing agencies with high risk factors as determined by cybersecurity performance and incident data. My colleagues will fully address the recent cyber incidents affecting the Office of Personnel Management, known as OPM.    In terms of the role of OMB, my office monitors very closely all reports of incidents affecting Federal networks and systems. We use these reports to look for trends and patterns, as well as for areas where our government-wide processes, policies, and practices can be strengthened. We then update our guidance and coordinate with other agencies to ensure that that guidance is implemented.    As you heard from me last week, the recently-passed Federal Information Technology Acquisition Reform Act, known as FITARA, and our guidance associated with that legislation strengthens the role of the CIO in agency cybersecurity.    In this case, OPM notified OMB in April 2015 of an incident affecting data in transit in its network. OPM reported that they were working closely with various government agencies on a comprehensive investigation and response to this incident. We have been actively monitoring the situation and have engaged in making sure that there is a government-wide response to the events that OPM.    To further improve Federal cybersecurity infrastructure and to protect systems against these evolving threats, OMB launched a 30-day Cybersecurity Sprint last week. The Sprint will focus on two areas: first, an interagency team is creating a set of action plans and strategies to further address critical cybersecurity priorities; second, agencies were directed to accelerate efforts to deploy threat indicators, patch critical vulnerabilities, and tighten policies and practices for privileged users, and to dramatically accelerate implementation of multi-factor authentication.    In closing, I want to underscore a critical point I made at the beginning of this testimony: both State and non-State actors are attempting to breach government and non-government systems in a very aggressive way. It is not going to go away, and we are going to see more of it. Ensuring the security of information on Federal Government networks and systems will remain a core focus of the Administration as we move aggressively to implement innovative protections and response to new challenges as they arise. In addition to the actions we are taking, we also look forward to working with Congress on legislative actions that may further protect our Nation's critical networks and systems.    I thank the committee for holding this hearing and for your commitment to improving Federal cybersecurity. I would be pleased to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Ms. Burns, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Burns</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Burns. Thank you. Good morning, Chairman Chaffetz, Ranking Member Cummings, and distinguished members of the committee. My name is Sylvia Burns and I am the Chief Information Officer for the U.S. Department of the Interior. I appreciate the opportunity to testify regarding DOI's efforts to secure and protect agency, customer, and employee data in the wake of recently discovered cyber intrusion.    Additionally, we appreciate having had the opportunity to provide a classified briefing on the cyber intrusion for members of your committee staff and other congressional staff on May 21st, 2015.    Cyber intruders executed very sophisticated tactics to obtain unauthorized access to OPM data hosted in a DOI data center which contained sensitive personally identifiable information. The incident was and remains under active investigation. At present, the effort has not discovered evidence that any data other than OPM data was exfiltrated.    DOI has initiated a major planning effort to address short, medium and long-term remediation to strengthen our security protections and reduce risks to the Department, our employees, our customers, and our partners. DOI takes the privacy and security of this data very seriously.    In April, DHS's U.S. Computer Emergency Readiness Team, US-CERT, informed DOI about a potential malicious activity which was later determined to be a sophisticated intrusion on DOI's network. DOI immediately began working with US-CERT, the FBI, and other Federal agencies to initiate an investigation and determine what information may have been compromised. DOI allowed DHS and the other investigating agencies immediate access to the DOI computer systems and DOI dedicated people to support the investigation.    Although there is evidence that the adversary had access to the DOI data center's overall environment, today the investigation has not discovered evidence that any data other than OPM data was exfiltrated. However, the investigation remains ongoing.    Concurrent with the investigation, DOI immediately initiated a major planning effort to address short, medium and long-term remediation to strengthen our cybersecurity protections. We undertook those efforts in the context of other cybersecurity improvements which were already underway pursuant to the Department's commitment to the Administration's cybersecurity cross-agency priority goals, as well as DHS's CDM program. We have now accelerated our work on preexisting efforts while devising and implementing new security measures in consultation with the investigating agencies with the expertise related to this particular threat.    Activities underway include working with DHS to scan for specific malicious indicators across the entire DOI network. As part of DHS's binding operational directive, we are identifying and mitigating critical IT security vulnerabilities for all internet-facing systems, and at the direction of the Secretary and Deputy Secretary we are doing the same for all of DOI's IT systems. This includes systems that are for DOI's internal use as well as systems for the public and non-DOI users.    We are acquiring and implementing new capabilities that will help us to detect and respond quickly to new intrusions. We continue to meet with interagency partners to learn about their activities and leverage their knowledge to make additional improvements to our cybersecurity posture at DOI. We are fully enabling two-factor authentication for all users.    DOI's existing long-term plan includes several agency-wide strategic initiatives, including continuing our commitment to DHS's CDM program. We are almost done implementing hardware and software asset management, and we will be adding new capabilities for application whitelisting, network access control, and dashboarding functionality to provide a comprehensive view of the Department's security posture.    We are strengthening DOI's cybersecurity and privacy workforce so that we have knowledgeable and experienced people to address current and future threats facing the agency. We are designing and implementing increased network segmentation so that, if an intrusion occurs within one component of our network, we can better limit the extent of the exposure. We are evaluating data protection technologies, such as information rights management, for potential future investments.    Again, DOI takes the privacy and security of its data very seriously. We are committed to supporting and continuing the investigation regarding the incident affecting OPM data. Furthermore, we will continue to be an active participant in the ongoing efforts by the Federal Government to improve our Nation's overall cybersecurity posture.    Chairman Chaffetz, Ranking Member Cummings, and members of the committee, this concludes my prepared statement. I would be happy to answer any questions that you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Ms. Seymour, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Seymour</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Seymour. My remarks were included with the Director. Thank you for having me here today, Chairman Chaffetz and Ranking Member Cummings, and I will be happy to answer questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Mr. Esser, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Esser</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Esser. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, good morning. My name is Michael R. Esser. I am the Assistant Inspector General for Audits at U.S. Office of Personnel Management.    Thank you for inviting me to testify at today's hearing on the IT security audit work performed by the OPM Office of the Inspector General.    Today I will be discussing OPM's long history of systemic failures to properly manage its IT infrastructure, which we believe ultimately led to the breaches we are discussing today.    There are three primary areas of concern that we have identified through our audits during the past several years: information security governance, security assessment and authorization, and technical security controls.    Information security governance is the management structure and processes that form the foundation of a successful security program.    For many years, OPM operated in a decentralized manner, with the agency's program offices managing their IT systems. The agency's CIO had ultimate responsibility for protecting these systems, but often did not have the access or control to do so. The program office staff responsible for IT security frequently had no IT background and performed this function in addition to their other full-time roles.    As a result of this decentralized structure, many security controls remained unimplemented or untested, and all of our FISMA audits between 2007 and 2013 identified this as a serious concern.    However, in 2014, OPM took steps to centralize IT security responsibility with the CIO. This new structure has resulted in improvement in the consistency and quality of security practices at OPM. Although we are optimistic about these improvements, it is apparent that the OCIO is still negatively impacted by years of decentralization.    The second topic is security assessments and authorization. This is a comprehensive assessment of each IT system to ensure that it meets the applicable security standards before allowing the system to operate.    OPM has a long history of issues related to system authorization as well. In 2010 and 2011 we noted serious concerns in this area, but, after improvements were made, removed it as an audit concern in 2012.    However, problems with OPM system authorizations have reappeared. In 2014, 21 OPM systems were due to receive a new authorization, but 11 were not authorized by year-end. Recently, the OCIO has temporarily put authorization efforts on hold while it modernized OPM's IT infrastructure in response to security breaches, and so it is likely that the number will increase. While we support the effort to modernize systems, we believe that authorization activities should continue.    The third topic relates to OPM's use of technical security controls. OPM has implemented a variety of controls and tools to make the agency's IT systems more secure. However, such tools are only helpful if they are used properly and cover the entire technical infrastructure. We have concerns that they are not.    For example, we were told that OPM performs vulnerability scans on all computer servers using automated scanning tools. Although OPM was performing the scans, our audit also found that some were not done correctly and that some servers were not scanned at all.    One significant control that is lacking altogether is the requirement for PIV credentials for two-factor authentication to access information systems. We also determined that OPM does not have an accurate centralized inventory of all servers and databases. Even if all OPM security tools were being used properly, OPM cannot fully defend its network without a comprehensive list of assets.    In closing, it is clear that even though security responsibility is now highly centralized under the OCIO, the recent security breaches indicate that OPM still has significant work to do to identify all of the assets and data that it is tasked with protecting and then take the steps to do so.    Thank you for your time, and I am happy to answer any questions you may have.</t>
   </si>
   <si>
@@ -148,9 +118,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman.    The recent cyber attack against the Office of Personnel Management is the latest in a series of aggressive attacks against our Nation in both the public and private sectors.    I want to put up a slide that lists some of the most significant breaches over the past few years.    [Slide shown.]</t>
   </si>
   <si>
@@ -469,9 +436,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. I appreciate the witnesses being here.    This morning we have certainly heard that there is no silver bullet, and I don't think we expected the answer to be, yes, there is a silver bullet. We are concerned that, knowing what has been going on, having clear evidence that hackers have been attempting for quite some time and then, at least those of us here who trust on agencies and people like yourselves who know the issues, that some more efforts could have been successful in stopping the most recent attacks.    We have heard today that networks aren't compartmentalized, segmented, in certain cases encrypted; that with the recent attacks, exterior perimeter has been breached, the attacker often remains undetected for months. That is concerning. As a result of that, able to exploit vulnerabilities within the networks without passing through, and this is most concerning to me, additional inspection or security measures.    So, Mr. Scott, as I understand, in the private sectors there have been shifts towards zero trust model. Ultimately, given OMB's role in setting metrics for agencies, my question is can you tell me, tell us what OMB is doing to set IT security metrics to limit the number of workloads, application tiers to the networks?</t>
   </si>
   <si>
@@ -505,9 +469,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. I want to thank the chairman and ranking member for calling this hearing, and all of our panelists for your public service.    As one who represents the city that was attacked by 9/11, we lost thousands on that day and thousands more are still dying from health-related causes from that fateful day. But I consider this attack, I call it an attack on our Country, a far more serious one to the national security of our Country.    I would like to ask Mr. Ozment from Homeland Security, would you characterize this as a large-scale cyber spying effort? That is what it sounds like to me. What is it?</t>
   </si>
   <si>
@@ -556,9 +517,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    Ms. Archuleta, let me come to you. You have been in your current position since 2013, is that correct?</t>
   </si>
   <si>
@@ -634,9 +592,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    I want to thank our panel for your help.    I want to associate myself with the remarks of the ranking member and the chairman today, which doesn't always happen.</t>
   </si>
   <si>
@@ -679,9 +634,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you, Mr. Chairman.    Many of us are often uncomfortable asking questions in this type of setting, because obviously we don't want to ask questions the answers to which should be kept confidential. So I encourage you in advance, if I ask you something that we should talk about in a different setting, that is an acceptable answer.    But I sort of feel like in Mr. Lynch in that I don't know if I get my hands around exactly what we are learning. So let's start with this. I am going to follow up on a question that Mr. Meadows asked of Ms. Archuleta, which is, he asked you if you were going to implement all of the IG's recommendations. You said you were working with the IG.    Whether or not that was a yes or no answer, I agree with Mr. Meadows, probably closer to no, so let me address it like this. Can you name for me some of the IG recommendations that you are pushing back against or that you are not interested in implementing?</t>
   </si>
   <si>
@@ -775,9 +727,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    You know, what is so jarring about this hearing is that sort of in bloodless and bureaucratic language we are talking about the compromise of information of fellow Americans and, from the Federal employee point of view, the most catastrophic compromise of personal information in the history of this Country. Social Security records.    Ms. Archuleta, you mentioned that not health information, but health carrier. That is a roadmap to other information hackers can get.    Security clearances. Security clearances are deeply personal and often involve, do they not, Ms. Seymour, unconfirmed negative information, even rumors. I think so-and-so has a drinking problem. That gets in that report even if it is not confirmed. Is that not correct?</t>
   </si>
   <si>
@@ -856,9 +805,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    I certainly agree with my colleague from Virginia in his description this is a catastrophic compromise.    Ms. Archuleta, it appears that OPM did not follow the very basic cybersecurity best practices, specifically such as network segmentation and encryption of sensitive data. Should the data have been encrypted? Can you address that?</t>
   </si>
   <si>
@@ -916,9 +862,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Now recognize the gentleman from Pennsylvania, Mr. Cartwright, for five minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.    I thank the chairman and the ranking member for calling this hearing.    Director Archuleta, I know there have been much bigger data breaches than this one, but I am concerned, and I share the sentiments of Mr. Connolly from Virginia. This is extremely troubling. We are talking about 4 million-plus Federal workers, people who dedicate their entire careers, indeed, their entire lives, to our Country, and now their personal information has been compromised through absolutely no fault of their own.    If I understand your testimony, the personal information of about 4 million current and former employees was potentially compromised, and I want to ask you, as your investigation continues, do you believe that that number is going to be bigger than 4 million?</t>
   </si>
   <si>
@@ -1021,9 +964,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    I am baffled by all of this. Upon receipt or upon your appointment of the directorship of OPM, Director Archuleta had stated that she was committed to building an inclusive workforce. Who would have thought that that would have included our enemies.    In this testimony here today, we heard statements that we did not encrypt because we thought they might be able to decrypt or decipher. That is just baffling to me.    There was another statement I heard earlier today that said had we not established the systems, we would never have known about the breach. That is tantamount to saying if we had not watered our flower beds, we would have never seen the muddy footprints on the open windowsill.    I mean, this is absolute negligence that puts the lives of Americans at risk, and also foreign nationals that interact with these Americans. Of particular concern are the SF 86 forms, of which I am very familiar, with my background prior to coming to Congress.    We had Sean Gallagher from Ars Technica, who summed it up probably best. He said that this breach was a result of inertia, a lack of internal expertise, and a decade of neglect.    Director Archuleta, why did you not shut down 11 of the 21 systems that had no security assessment and authorization?</t>
   </si>
   <si>
@@ -1081,9 +1021,6 @@
     <t>412616</t>
   </si>
   <si>
-    <t>Ted Lieu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lieu. Thank you, Mr. Chairman.    Director Archuleta, under your watch, last March, OPM database containing the crown jewels of American intelligence was breached. This year the same exact database was breached. A third database containing over 4 million Federal employees' data unencrypted was breached.    The IG has said that at OPM your technology systems are either materially weak or seriously deficient, and my question to you, just a very simple yes or no, is do you accept responsibility for what happened?</t>
   </si>
   <si>
@@ -1165,9 +1102,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Ms. Archuleta, in your testimony you said, and I think this is the direct quote, ``we have now confirmed that any Federal employee from across all branches of Government whose organization submitted service history records to OPM may have been compromised, even if their full personnel file was not stored on OPM's system.''    What do you mean by service history?</t>
   </si>
   <si>
@@ -1213,9 +1147,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Ms. Seymour, does the employee exposure extend only to those who filled out Standard Form 86, or does it include others as well?</t>
   </si>
   <si>
@@ -1255,9 +1186,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Mr. Esser, what are the risks that are associated with not having a valid system authorization?</t>
   </si>
   <si>
@@ -1330,9 +1258,6 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman. Thank you for having this important hearing.    I want to thank the panel for taking this conversation and these questions so seriously.    In New Mexico, we are one of the States that has one of the largest percentage or per capita Federal employees in the Country, in the top five, so I have 50,000 Federal employees in my home State, and I am on their side by being incredibly concerned about this and, quite frankly, many other data breaches.    The growing sophistication, frequency, and the impact on both public and private entities by cyber attacks continue to be a very serious threat. In fact, two days after my first election, one of the key briefings by one of the national labs which is in my district on Kirkland Air Force Base is the continuing growing concern with cybersecurity issues and their aggressive responses both to be proactive as much as they can and to appropriately be reactive once you have an identifiable breach.    Given the data breach at OPM and at Home Depot and at Target, Anthem, it is clear to me that not only does the Federal Government have a role in protecting Federal employees and the information that you have, but we have a role in working to protect the public in general from these serious and continuing series of cyber attacks.    But I recognize also that this is a very challenging effort and that there is not a simple solution. If there was, we could stop this hacking altogether and have the magic bullet. And as much as I want you to do that, I don't want to minimize the fact that I recognize that that is more difficult to say than do. No, it is easy to do; it is not so easy to do. But my concerns are growing given that even the best in the Country are facing significant cyber attacks, including Kaspersky Lab, who we are relying on for innovative and appropriate technologies to implement.    So given that diatribe and given all the questions that you have had about accountability, about the serious nature, here is really my question. The Federal Government is not known for being, and I mean no disrespect by this, but just stating the facts, it is not a proactive, very reactive body just by the nature of how large it is, how broad our mission is, and how we are dependent on whatever the resources are and the priorities are at any given time.    Given that climate and the role to protect the general public and your role to protect Federal employee information, what can you do that is different, that puts you in a position to be much more proactive, particularly given the nature of cyber attacks? Quite frankly, they have already hacked in as you are making the next modifications.    Anyone on the panel. Mr. Scott, that may be a question that is primarily for you, but I would be interested in anybody's response.</t>
   </si>
   <si>
@@ -1355,9 +1280,6 @@
   </si>
   <si>
     <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grothman. I am glad we have established that the Federal Government is not a proactive, reactive body. It is something for us to always remember, no matter what bill moves around here. It is something to remember about the Federal Government.    But be that as it may, the first question I have for you guys, this is kind of a significant story here. Just out of curiosity, just to see how the Federal Government operates, has anybody lost their job over this or have there been any recriminations in that regard?</t>
@@ -1783,11 +1705,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1807,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1835,11 +1753,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1859,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1887,11 +1801,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1913,11 +1825,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1937,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1965,11 +1873,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1989,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2017,11 +1921,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2041,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2069,11 +1969,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2093,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2121,11 +2017,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2145,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2173,11 +2065,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2197,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2225,11 +2113,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2249,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2275,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2303,11 +2185,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2327,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2355,11 +2233,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2379,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2407,11 +2281,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2431,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2459,11 +2329,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2483,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2511,11 +2377,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2535,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2563,11 +2425,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2587,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2615,11 +2473,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2639,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2667,11 +2521,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2691,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2719,11 +2569,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2743,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2771,11 +2617,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2795,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2823,11 +2665,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2847,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2875,11 +2713,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2899,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2927,11 +2761,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2953,11 +2785,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2977,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3005,11 +2833,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3029,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3057,11 +2881,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3081,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3109,11 +2929,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3133,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3161,11 +2977,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3185,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3213,11 +3025,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3237,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3265,11 +3073,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3289,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3317,11 +3121,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3341,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3369,11 +3169,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3393,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3421,11 +3217,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3445,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3473,11 +3265,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3497,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3525,11 +3313,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3549,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3577,11 +3361,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3601,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3629,11 +3409,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3653,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3681,11 +3457,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3705,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3733,11 +3505,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3757,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3785,11 +3553,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3809,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3837,11 +3601,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3861,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3889,11 +3649,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3913,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3939,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3965,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
-      </c>
-      <c r="G86" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3991,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4017,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
-      </c>
-      <c r="G88" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4043,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4069,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
-      </c>
-      <c r="G90" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4095,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4121,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
-      </c>
-      <c r="G92" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4147,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4173,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G94" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4199,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4225,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
-      </c>
-      <c r="G96" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4251,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4277,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
-      </c>
-      <c r="G98" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4303,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4329,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
-      </c>
-      <c r="G100" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4355,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4381,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
-      </c>
-      <c r="G102" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4407,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4433,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
-      </c>
-      <c r="G104" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4459,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4485,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
-      </c>
-      <c r="G106" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4511,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4537,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
-      </c>
-      <c r="G108" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4563,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4589,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
-      </c>
-      <c r="G110" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4615,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4641,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
-      </c>
-      <c r="G112" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4667,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4693,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
-      </c>
-      <c r="G114" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4719,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4745,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
-      </c>
-      <c r="G116" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4771,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4797,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
-      </c>
-      <c r="G118" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4823,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4849,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
-      </c>
-      <c r="G120" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4875,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4901,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
-      </c>
-      <c r="G122" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4927,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4953,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
-      </c>
-      <c r="G124" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4981,11 +4657,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5005,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>150</v>
-      </c>
-      <c r="G126" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5031,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5057,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
-      </c>
-      <c r="G128" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5083,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5109,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>150</v>
-      </c>
-      <c r="G130" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5135,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
-      </c>
-      <c r="G131" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5161,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>150</v>
-      </c>
-      <c r="G132" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5187,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5213,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>150</v>
-      </c>
-      <c r="G134" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5241,11 +4897,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5265,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>162</v>
-      </c>
-      <c r="G136" t="s">
-        <v>163</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5291,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5317,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>162</v>
-      </c>
-      <c r="G138" t="s">
-        <v>163</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5343,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5369,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>162</v>
-      </c>
-      <c r="G140" t="s">
-        <v>163</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5395,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5421,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>162</v>
-      </c>
-      <c r="G142" t="s">
-        <v>163</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5449,11 +5089,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5473,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>162</v>
-      </c>
-      <c r="G144" t="s">
-        <v>163</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5499,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5525,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>162</v>
-      </c>
-      <c r="G146" t="s">
-        <v>163</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5551,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5577,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>162</v>
-      </c>
-      <c r="G148" t="s">
+        <v>150</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
         <v>163</v>
-      </c>
-      <c r="H148" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5603,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
-      </c>
-      <c r="G149" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5631,11 +5257,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5655,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>179</v>
-      </c>
-      <c r="G151" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5681,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5707,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>179</v>
-      </c>
-      <c r="G153" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5733,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5759,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>179</v>
-      </c>
-      <c r="G155" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5785,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5811,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>179</v>
-      </c>
-      <c r="G157" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5837,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5863,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>179</v>
-      </c>
-      <c r="G159" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5889,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5915,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>179</v>
-      </c>
-      <c r="G161" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5941,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5967,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
+        <v>166</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
         <v>179</v>
-      </c>
-      <c r="G163" t="s">
-        <v>180</v>
-      </c>
-      <c r="H163" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5993,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6019,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>179</v>
-      </c>
-      <c r="G165" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6045,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6071,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>179</v>
-      </c>
-      <c r="G167" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6097,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6123,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>179</v>
-      </c>
-      <c r="G169" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6149,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6175,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>179</v>
-      </c>
-      <c r="G171" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6201,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6227,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>179</v>
-      </c>
-      <c r="G173" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6255,11 +5833,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6279,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>205</v>
-      </c>
-      <c r="G175" t="s">
-        <v>206</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6307,11 +5881,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6331,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>205</v>
-      </c>
-      <c r="G177" t="s">
-        <v>206</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6359,11 +5929,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6383,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>205</v>
-      </c>
-      <c r="G179" t="s">
-        <v>206</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6409,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6435,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>205</v>
-      </c>
-      <c r="G181" t="s">
-        <v>206</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6461,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6487,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>205</v>
-      </c>
-      <c r="G183" t="s">
-        <v>206</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6513,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>23</v>
-      </c>
-      <c r="G184" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6539,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>205</v>
-      </c>
-      <c r="G185" t="s">
-        <v>206</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6565,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>23</v>
-      </c>
-      <c r="G186" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6591,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>205</v>
-      </c>
-      <c r="G187" t="s">
-        <v>206</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6619,11 +6169,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6643,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>220</v>
-      </c>
-      <c r="G189" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6669,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>23</v>
-      </c>
-      <c r="G190" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6695,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>220</v>
-      </c>
-      <c r="G191" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6721,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
-      </c>
-      <c r="G192" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6747,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>220</v>
-      </c>
-      <c r="G193" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6773,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6799,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>220</v>
-      </c>
-      <c r="G195" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6825,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
-      </c>
-      <c r="G196" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6851,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>220</v>
-      </c>
-      <c r="G197" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6877,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
-      </c>
-      <c r="G198" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6903,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>220</v>
-      </c>
-      <c r="G199" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6929,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
-      </c>
-      <c r="G200" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6955,13 +6479,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>220</v>
-      </c>
-      <c r="G201" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6981,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
-      </c>
-      <c r="G202" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7007,13 +6527,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
+        <v>205</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
         <v>220</v>
-      </c>
-      <c r="G203" t="s">
-        <v>221</v>
-      </c>
-      <c r="H203" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7033,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
-      </c>
-      <c r="G204" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7059,13 +6575,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>220</v>
-      </c>
-      <c r="G205" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7085,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
-      </c>
-      <c r="G206" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7111,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>220</v>
-      </c>
-      <c r="G207" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7137,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>23</v>
-      </c>
-      <c r="G208" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7163,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>220</v>
-      </c>
-      <c r="G209" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7189,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>23</v>
-      </c>
-      <c r="G210" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7215,13 +6719,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>220</v>
-      </c>
-      <c r="G211" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7241,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>23</v>
-      </c>
-      <c r="G212" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7267,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>220</v>
-      </c>
-      <c r="G213" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7293,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>23</v>
-      </c>
-      <c r="G214" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7319,13 +6815,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>220</v>
-      </c>
-      <c r="G215" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7345,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
-      </c>
-      <c r="G216" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7371,13 +6863,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>220</v>
-      </c>
-      <c r="G217" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7399,11 +6889,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7423,13 +6911,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>252</v>
-      </c>
-      <c r="G219" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7449,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>23</v>
-      </c>
-      <c r="G220" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7475,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>252</v>
-      </c>
-      <c r="G221" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7501,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>23</v>
-      </c>
-      <c r="G222" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7527,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>252</v>
-      </c>
-      <c r="G223" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7553,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
-      </c>
-      <c r="G224" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7579,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>252</v>
-      </c>
-      <c r="G225" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7605,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>23</v>
-      </c>
-      <c r="G226" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7631,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>252</v>
-      </c>
-      <c r="G227" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7657,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
-      </c>
-      <c r="G228" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7683,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>252</v>
-      </c>
-      <c r="G229" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7709,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
-      </c>
-      <c r="G230" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7735,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>252</v>
-      </c>
-      <c r="G231" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7761,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
-      </c>
-      <c r="G232" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7787,13 +7247,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>252</v>
-      </c>
-      <c r="G233" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7813,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
-      </c>
-      <c r="G234" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7839,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>252</v>
-      </c>
-      <c r="G235" t="s">
+        <v>236</v>
+      </c>
+      <c r="G235" t="s"/>
+      <c r="H235" t="s">
         <v>253</v>
-      </c>
-      <c r="H235" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7865,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>23</v>
-      </c>
-      <c r="G236" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7891,13 +7343,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>252</v>
-      </c>
-      <c r="G237" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7917,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>23</v>
-      </c>
-      <c r="G238" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7943,13 +7391,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>252</v>
-      </c>
-      <c r="G239" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7969,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>23</v>
-      </c>
-      <c r="G240" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7995,13 +7439,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>252</v>
-      </c>
-      <c r="G241" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8021,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
-      </c>
-      <c r="G242" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8047,13 +7487,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>252</v>
-      </c>
-      <c r="G243" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8075,11 +7513,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8099,13 +7535,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>279</v>
-      </c>
-      <c r="G245" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8125,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>23</v>
-      </c>
-      <c r="G246" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8151,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>279</v>
-      </c>
-      <c r="G247" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8177,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>23</v>
-      </c>
-      <c r="G248" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8203,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>23</v>
-      </c>
-      <c r="G249" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8229,13 +7655,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>279</v>
-      </c>
-      <c r="G250" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8255,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>23</v>
-      </c>
-      <c r="G251" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8281,13 +7703,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>279</v>
-      </c>
-      <c r="G252" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8307,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>23</v>
-      </c>
-      <c r="G253" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8333,13 +7751,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>279</v>
-      </c>
-      <c r="G254" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8359,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>23</v>
-      </c>
-      <c r="G255" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8385,13 +7799,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>279</v>
-      </c>
-      <c r="G256" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8411,13 +7823,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>23</v>
-      </c>
-      <c r="G257" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8437,13 +7847,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>279</v>
-      </c>
-      <c r="G258" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8463,13 +7871,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>23</v>
-      </c>
-      <c r="G259" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8489,13 +7895,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>279</v>
-      </c>
-      <c r="G260" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8515,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>23</v>
-      </c>
-      <c r="G261" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8541,13 +7943,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>279</v>
-      </c>
-      <c r="G262" t="s">
+        <v>262</v>
+      </c>
+      <c r="G262" t="s"/>
+      <c r="H262" t="s">
         <v>280</v>
-      </c>
-      <c r="H262" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8569,11 +7969,9 @@
       <c r="F263" t="s">
         <v>11</v>
       </c>
-      <c r="G263" t="s">
-        <v>12</v>
-      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8593,13 +7991,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>23</v>
-      </c>
-      <c r="G264" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8619,13 +8015,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>23</v>
-      </c>
-      <c r="G265" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8645,13 +8039,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>23</v>
-      </c>
-      <c r="G266" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8671,13 +8063,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>23</v>
-      </c>
-      <c r="G267" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8697,13 +8087,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>23</v>
-      </c>
-      <c r="G268" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8723,13 +8111,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>23</v>
-      </c>
-      <c r="G269" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8749,13 +8135,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>23</v>
-      </c>
-      <c r="G270" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8775,13 +8159,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>23</v>
-      </c>
-      <c r="G271" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8801,13 +8183,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>23</v>
-      </c>
-      <c r="G272" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8827,13 +8207,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>23</v>
-      </c>
-      <c r="G273" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8853,13 +8231,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>23</v>
-      </c>
-      <c r="G274" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8879,13 +8255,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>23</v>
-      </c>
-      <c r="G275" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8905,13 +8279,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>23</v>
-      </c>
-      <c r="G276" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8931,13 +8303,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>23</v>
-      </c>
-      <c r="G277" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8957,13 +8327,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>23</v>
-      </c>
-      <c r="G278" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8983,13 +8351,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>23</v>
-      </c>
-      <c r="G279" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9009,13 +8375,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>23</v>
-      </c>
-      <c r="G280" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9035,13 +8399,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>23</v>
-      </c>
-      <c r="G281" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9061,13 +8423,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>23</v>
-      </c>
-      <c r="G282" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9087,13 +8447,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>23</v>
-      </c>
-      <c r="G283" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9113,13 +8471,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>23</v>
-      </c>
-      <c r="G284" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9139,13 +8495,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>23</v>
-      </c>
-      <c r="G285" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9165,13 +8519,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>23</v>
-      </c>
-      <c r="G286" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9191,13 +8543,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>23</v>
-      </c>
-      <c r="G287" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9217,13 +8567,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>23</v>
-      </c>
-      <c r="G288" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9243,13 +8591,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
-      </c>
-      <c r="G289" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9269,13 +8615,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>23</v>
-      </c>
-      <c r="G290" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9295,13 +8639,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>23</v>
-      </c>
-      <c r="G291" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9321,13 +8663,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>23</v>
-      </c>
-      <c r="G292" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9347,13 +8687,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>23</v>
-      </c>
-      <c r="G293" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9373,13 +8711,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>23</v>
-      </c>
-      <c r="G294" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9399,13 +8735,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>23</v>
-      </c>
-      <c r="G295" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9425,13 +8759,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>23</v>
-      </c>
-      <c r="G296" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9453,11 +8785,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9477,13 +8807,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>23</v>
-      </c>
-      <c r="G298" t="s">
-        <v>300</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9505,11 +8833,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9529,13 +8855,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>334</v>
-      </c>
-      <c r="G300" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9555,13 +8879,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>23</v>
-      </c>
-      <c r="G301" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9581,13 +8903,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>334</v>
-      </c>
-      <c r="G302" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9607,13 +8927,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>23</v>
-      </c>
-      <c r="G303" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9633,13 +8951,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>334</v>
-      </c>
-      <c r="G304" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9659,13 +8975,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>23</v>
-      </c>
-      <c r="G305" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9685,13 +8999,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>334</v>
-      </c>
-      <c r="G306" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9711,13 +9023,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>23</v>
-      </c>
-      <c r="G307" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9737,13 +9047,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>334</v>
-      </c>
-      <c r="G308" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9763,13 +9071,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>23</v>
-      </c>
-      <c r="G309" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9789,13 +9095,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>334</v>
-      </c>
-      <c r="G310" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9815,13 +9119,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>23</v>
-      </c>
-      <c r="G311" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9841,13 +9143,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>334</v>
-      </c>
-      <c r="G312" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9867,13 +9167,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>23</v>
-      </c>
-      <c r="G313" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9893,13 +9191,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>334</v>
-      </c>
-      <c r="G314" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9919,13 +9215,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>23</v>
-      </c>
-      <c r="G315" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9945,13 +9239,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>334</v>
-      </c>
-      <c r="G316" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9973,11 +9265,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9997,13 +9287,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>354</v>
-      </c>
-      <c r="G318" t="s">
-        <v>355</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10023,13 +9311,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>23</v>
-      </c>
-      <c r="G319" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10049,13 +9335,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>354</v>
-      </c>
-      <c r="G320" t="s">
-        <v>355</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10077,11 +9361,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10101,13 +9383,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>14</v>
-      </c>
-      <c r="G322" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10127,13 +9407,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>23</v>
-      </c>
-      <c r="G323" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10153,13 +9431,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>14</v>
-      </c>
-      <c r="G324" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10179,13 +9455,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>23</v>
-      </c>
-      <c r="G325" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10205,13 +9479,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
-      </c>
-      <c r="G326" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10231,13 +9503,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>23</v>
-      </c>
-      <c r="G327" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10257,13 +9527,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>14</v>
-      </c>
-      <c r="G328" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10283,13 +9551,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>23</v>
-      </c>
-      <c r="G329" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10309,13 +9575,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>14</v>
-      </c>
-      <c r="G330" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10335,13 +9599,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>23</v>
-      </c>
-      <c r="G331" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10361,13 +9623,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10387,13 +9647,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>23</v>
-      </c>
-      <c r="G333" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10413,13 +9671,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10439,13 +9695,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>23</v>
-      </c>
-      <c r="G335" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10465,13 +9719,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>14</v>
-      </c>
-      <c r="G336" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10491,13 +9743,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>23</v>
-      </c>
-      <c r="G337" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10517,13 +9767,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>14</v>
-      </c>
-      <c r="G338" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10543,13 +9791,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>23</v>
-      </c>
-      <c r="G339" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10569,13 +9815,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>14</v>
-      </c>
-      <c r="G340" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10595,13 +9839,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>23</v>
-      </c>
-      <c r="G341" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10621,13 +9863,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>14</v>
-      </c>
-      <c r="G342" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10649,11 +9889,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>12</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10673,13 +9911,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>382</v>
-      </c>
-      <c r="G344" t="s">
-        <v>383</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10699,13 +9935,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>23</v>
-      </c>
-      <c r="G345" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10725,13 +9959,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>382</v>
-      </c>
-      <c r="G346" t="s">
-        <v>383</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10751,13 +9983,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>23</v>
-      </c>
-      <c r="G347" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10777,13 +10007,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>382</v>
-      </c>
-      <c r="G348" t="s">
-        <v>383</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10803,13 +10031,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>23</v>
-      </c>
-      <c r="G349" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10829,13 +10055,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>382</v>
-      </c>
-      <c r="G350" t="s">
-        <v>383</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10855,13 +10079,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>23</v>
-      </c>
-      <c r="G351" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10881,13 +10103,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>382</v>
-      </c>
-      <c r="G352" t="s">
-        <v>383</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10907,13 +10127,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>23</v>
-      </c>
-      <c r="G353" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10933,13 +10151,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>382</v>
-      </c>
-      <c r="G354" t="s">
-        <v>383</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10959,13 +10175,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>23</v>
-      </c>
-      <c r="G355" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10985,13 +10199,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>382</v>
-      </c>
-      <c r="G356" t="s">
-        <v>383</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11013,11 +10225,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>12</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11037,13 +10247,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>398</v>
-      </c>
-      <c r="G358" t="s">
-        <v>399</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11063,13 +10271,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>23</v>
-      </c>
-      <c r="G359" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11089,13 +10295,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>398</v>
-      </c>
-      <c r="G360" t="s">
-        <v>399</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11115,13 +10319,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>23</v>
-      </c>
-      <c r="G361" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11141,13 +10343,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>398</v>
-      </c>
-      <c r="G362" t="s">
-        <v>399</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11167,13 +10367,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>23</v>
-      </c>
-      <c r="G363" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11193,13 +10391,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>398</v>
-      </c>
-      <c r="G364" t="s">
-        <v>399</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11219,13 +10415,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>23</v>
-      </c>
-      <c r="G365" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11245,13 +10439,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>398</v>
-      </c>
-      <c r="G366" t="s">
-        <v>399</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11271,13 +10463,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>23</v>
-      </c>
-      <c r="G367" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11297,13 +10487,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>398</v>
-      </c>
-      <c r="G368" t="s">
-        <v>399</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11325,11 +10513,9 @@
       <c r="F369" t="s">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11349,13 +10535,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>412</v>
-      </c>
-      <c r="G370" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11375,13 +10559,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>23</v>
-      </c>
-      <c r="G371" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11401,13 +10583,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>412</v>
-      </c>
-      <c r="G372" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11427,13 +10607,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>23</v>
-      </c>
-      <c r="G373" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11453,13 +10631,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>412</v>
-      </c>
-      <c r="G374" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11479,13 +10655,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>23</v>
-      </c>
-      <c r="G375" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11505,13 +10679,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>412</v>
-      </c>
-      <c r="G376" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11531,13 +10703,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>23</v>
-      </c>
-      <c r="G377" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11557,13 +10727,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>412</v>
-      </c>
-      <c r="G378" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11583,13 +10751,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>23</v>
-      </c>
-      <c r="G379" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11609,13 +10775,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>412</v>
-      </c>
-      <c r="G380" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11635,13 +10799,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>23</v>
-      </c>
-      <c r="G381" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11661,13 +10823,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>412</v>
-      </c>
-      <c r="G382" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11687,13 +10847,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>23</v>
-      </c>
-      <c r="G383" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11713,13 +10871,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>412</v>
-      </c>
-      <c r="G384" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11739,13 +10895,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>23</v>
-      </c>
-      <c r="G385" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11765,13 +10919,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>412</v>
-      </c>
-      <c r="G386" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11791,13 +10943,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>23</v>
-      </c>
-      <c r="G387" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11817,13 +10967,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>412</v>
-      </c>
-      <c r="G388" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11843,13 +10991,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>23</v>
-      </c>
-      <c r="G389" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11869,13 +11015,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>412</v>
-      </c>
-      <c r="G390" t="s">
-        <v>413</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11895,13 +11039,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>23</v>
-      </c>
-      <c r="G391" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11923,11 +11065,9 @@
       <c r="F392" t="s">
         <v>11</v>
       </c>
-      <c r="G392" t="s">
-        <v>12</v>
-      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11947,13 +11087,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>437</v>
-      </c>
-      <c r="G393" t="s">
-        <v>438</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11973,13 +11111,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>30</v>
-      </c>
-      <c r="G394" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11999,13 +11135,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>437</v>
-      </c>
-      <c r="G395" t="s">
-        <v>438</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12025,13 +11159,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>30</v>
-      </c>
-      <c r="G396" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12053,11 +11185,9 @@
       <c r="F397" t="s">
         <v>11</v>
       </c>
-      <c r="G397" t="s">
-        <v>12</v>
-      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12077,13 +11207,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>30</v>
-      </c>
-      <c r="G398" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12105,11 +11233,9 @@
       <c r="F399" t="s">
         <v>11</v>
       </c>
-      <c r="G399" t="s">
-        <v>12</v>
-      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12129,13 +11255,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>446</v>
-      </c>
-      <c r="G400" t="s">
-        <v>447</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12155,13 +11279,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>23</v>
-      </c>
-      <c r="G401" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12181,13 +11303,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>446</v>
-      </c>
-      <c r="G402" t="s">
-        <v>447</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12207,13 +11327,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>23</v>
-      </c>
-      <c r="G403" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12233,13 +11351,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>446</v>
-      </c>
-      <c r="G404" t="s">
-        <v>447</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12259,13 +11375,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>23</v>
-      </c>
-      <c r="G405" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12285,13 +11399,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>446</v>
-      </c>
-      <c r="G406" t="s">
-        <v>447</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12311,13 +11423,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>23</v>
-      </c>
-      <c r="G407" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12337,13 +11447,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>446</v>
-      </c>
-      <c r="G408" t="s">
-        <v>447</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12365,11 +11473,9 @@
       <c r="F409" t="s">
         <v>11</v>
       </c>
-      <c r="G409" t="s">
-        <v>12</v>
-      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
